--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H2">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J2">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N2">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q2">
-        <v>14.004955447505</v>
+        <v>47.04575259923622</v>
       </c>
       <c r="R2">
-        <v>126.044599027545</v>
+        <v>423.411773393126</v>
       </c>
       <c r="S2">
-        <v>0.07041121409519795</v>
+        <v>0.1500026309113152</v>
       </c>
       <c r="T2">
-        <v>0.07041121409519795</v>
+        <v>0.1500026309113152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H3">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J3">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.413406</v>
       </c>
       <c r="O3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q3">
-        <v>1.59282608683</v>
+        <v>3.452976098688667</v>
       </c>
       <c r="R3">
-        <v>14.33543478147</v>
+        <v>31.076784888198</v>
       </c>
       <c r="S3">
-        <v>0.008008081070774392</v>
+        <v>0.01100961235947149</v>
       </c>
       <c r="T3">
-        <v>0.008008081070774392</v>
+        <v>0.01100961235947149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H4">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J4">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N4">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q4">
-        <v>11.87439261096</v>
+        <v>26.85235212116178</v>
       </c>
       <c r="R4">
-        <v>106.86953349864</v>
+        <v>241.671169090456</v>
       </c>
       <c r="S4">
-        <v>0.0596996115778213</v>
+        <v>0.08561715440378978</v>
       </c>
       <c r="T4">
-        <v>0.0596996115778213</v>
+        <v>0.08561715440378978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.399915</v>
+        <v>3.034777666666667</v>
       </c>
       <c r="H5">
-        <v>4.199745</v>
+        <v>9.104333</v>
       </c>
       <c r="I5">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="J5">
-        <v>0.1420321708872511</v>
+        <v>0.2502264227183869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N5">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q5">
-        <v>0.7783574063833334</v>
+        <v>1.128145215029</v>
       </c>
       <c r="R5">
-        <v>7.005216657450001</v>
+        <v>10.153306935261</v>
       </c>
       <c r="S5">
-        <v>0.003913264143457413</v>
+        <v>0.003597025043810411</v>
       </c>
       <c r="T5">
-        <v>0.003913264143457413</v>
+        <v>0.00359702504381041</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>17.592014</v>
       </c>
       <c r="I6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J6">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N6">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q6">
-        <v>58.66436469401934</v>
+        <v>90.90501614630088</v>
       </c>
       <c r="R6">
-        <v>527.979282246174</v>
+        <v>818.145145316708</v>
       </c>
       <c r="S6">
-        <v>0.2949405414185193</v>
+        <v>0.2898453278267271</v>
       </c>
       <c r="T6">
-        <v>0.2949405414185193</v>
+        <v>0.2898453278267271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>17.592014</v>
       </c>
       <c r="I7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J7">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.413406</v>
       </c>
       <c r="O7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q7">
         <v>6.672076237742666</v>
@@ -883,10 +883,10 @@
         <v>60.048686139684</v>
       </c>
       <c r="S7">
-        <v>0.03354448289365141</v>
+        <v>0.0212735248987922</v>
       </c>
       <c r="T7">
-        <v>0.03354448289365141</v>
+        <v>0.0212735248987922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>17.592014</v>
       </c>
       <c r="I8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J8">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N8">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q8">
-        <v>49.739801119712</v>
+        <v>51.88594864098311</v>
       </c>
       <c r="R8">
-        <v>447.6582100774079</v>
+        <v>466.973537768848</v>
       </c>
       <c r="S8">
-        <v>0.2500714692610133</v>
+        <v>0.1654353129341415</v>
       </c>
       <c r="T8">
-        <v>0.2500714692610133</v>
+        <v>0.1654353129341415</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>17.592014</v>
       </c>
       <c r="I9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="J9">
-        <v>0.5949484882293836</v>
+        <v>0.4835045831069426</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N9">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q9">
-        <v>3.260406141348889</v>
+        <v>2.179879230782</v>
       </c>
       <c r="R9">
-        <v>29.34365527214</v>
+        <v>19.618913077038</v>
       </c>
       <c r="S9">
-        <v>0.01639199465619956</v>
+        <v>0.00695041744728179</v>
       </c>
       <c r="T9">
-        <v>0.01639199465619956</v>
+        <v>0.006950417447281788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H10">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J10">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N10">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q10">
-        <v>22.88625032708767</v>
+        <v>39.76277425481666</v>
       </c>
       <c r="R10">
-        <v>205.976252943789</v>
+        <v>357.86496829335</v>
       </c>
       <c r="S10">
-        <v>0.1150627488717892</v>
+        <v>0.1267812803711433</v>
       </c>
       <c r="T10">
-        <v>0.1150627488717892</v>
+        <v>0.1267812803711433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H11">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J11">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.413406</v>
       </c>
       <c r="O11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q11">
-        <v>2.602922707419333</v>
+        <v>2.91843368495</v>
       </c>
       <c r="R11">
-        <v>23.426304366774</v>
+        <v>26.26590316455</v>
       </c>
       <c r="S11">
-        <v>0.01308643563432439</v>
+        <v>0.009305255133484921</v>
       </c>
       <c r="T11">
-        <v>0.01308643563432439</v>
+        <v>0.009305255133484921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H12">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J12">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N12">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q12">
-        <v>19.404583098832</v>
+        <v>22.69543915473333</v>
       </c>
       <c r="R12">
-        <v>174.641247889488</v>
+        <v>204.2589523926</v>
       </c>
       <c r="S12">
-        <v>0.09755834355355464</v>
+        <v>0.0723630805079935</v>
       </c>
       <c r="T12">
-        <v>0.09755834355355464</v>
+        <v>0.0723630805079935</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.287676333333333</v>
+        <v>2.564975</v>
       </c>
       <c r="H13">
-        <v>6.863029</v>
+        <v>7.694925</v>
       </c>
       <c r="I13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="J13">
-        <v>0.2321024032964286</v>
+        <v>0.2114897989601526</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N13">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q13">
-        <v>1.271955666921111</v>
+        <v>0.9535012415249999</v>
       </c>
       <c r="R13">
-        <v>11.44760100229</v>
+        <v>8.581511173725</v>
       </c>
       <c r="S13">
-        <v>0.006394875236760417</v>
+        <v>0.003040182947530898</v>
       </c>
       <c r="T13">
-        <v>0.006394875236760418</v>
+        <v>0.003040182947530898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H14">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J14">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N14">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O14">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P14">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q14">
-        <v>3.048537037584667</v>
+        <v>10.29918598383933</v>
       </c>
       <c r="R14">
-        <v>27.436833338262</v>
+        <v>92.692673854554</v>
       </c>
       <c r="S14">
-        <v>0.0153268030616088</v>
+        <v>0.03283835220963015</v>
       </c>
       <c r="T14">
-        <v>0.0153268030616088</v>
+        <v>0.03283835220963015</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H15">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J15">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.413406</v>
       </c>
       <c r="O15">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P15">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q15">
-        <v>0.3467193693213333</v>
+        <v>0.7559203769380001</v>
       </c>
       <c r="R15">
-        <v>3.120474323892</v>
+        <v>6.803283392442001</v>
       </c>
       <c r="S15">
-        <v>0.001743163827671126</v>
+        <v>0.002410207915390304</v>
       </c>
       <c r="T15">
-        <v>0.001743163827671126</v>
+        <v>0.002410207915390304</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H16">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J16">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N16">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O16">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P16">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q16">
-        <v>2.584765500256</v>
+        <v>5.878476872402667</v>
       </c>
       <c r="R16">
-        <v>23.262889502304</v>
+        <v>52.906291851624</v>
       </c>
       <c r="S16">
-        <v>0.01299514858912525</v>
+        <v>0.01874317973236197</v>
       </c>
       <c r="T16">
-        <v>0.01299514858912525</v>
+        <v>0.01874317973236197</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3047273333333333</v>
+        <v>0.6643690000000001</v>
       </c>
       <c r="H17">
-        <v>0.9141819999999999</v>
+        <v>1.993107</v>
       </c>
       <c r="I17">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="J17">
-        <v>0.03091693758693657</v>
+        <v>0.05477919521451775</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N17">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O17">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P17">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q17">
-        <v>0.1694294130911111</v>
+        <v>0.246971867691</v>
       </c>
       <c r="R17">
-        <v>1.52486471782</v>
+        <v>2.222746809219</v>
       </c>
       <c r="S17">
-        <v>0.0008518221085313952</v>
+        <v>0.0007874553571353155</v>
       </c>
       <c r="T17">
-        <v>0.0008518221085313952</v>
+        <v>0.0007874553571353152</v>
       </c>
     </row>
   </sheetData>
